--- a/data/trans_dic/P56$nadie-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$nadie-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 16,8</t>
+          <t>1,73; 13,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,4</t>
+          <t>0,0; 9,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,77</t>
+          <t>0,0; 10,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,0</t>
+          <t>1,39; 9,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 19,23</t>
+          <t>5,07; 19,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,3</t>
+          <t>4,27; 11,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,51; 22,88</t>
+          <t>9,71; 23,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 6,37</t>
+          <t>2,65; 6,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,19</t>
+          <t>4,64; 14,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,48</t>
+          <t>3,52; 9,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 17,23</t>
+          <t>7,43; 17,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,98</t>
+          <t>2,63; 6,35</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,82</t>
+          <t>0,0; 60,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,17 +875,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,1</t>
+          <t>0,0; 53,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 19,22</t>
+          <t>1,91; 18,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,68</t>
+          <t>0,0; 71,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,17 +895,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 39,75</t>
+          <t>4,82; 41,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,93</t>
+          <t>0,94; 9,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,3</t>
+          <t>0,0; 52,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 35,59</t>
+          <t>7,25; 38,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 10,19</t>
+          <t>2,04; 9,82</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,43</t>
+          <t>0,0; 52,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 55,41</t>
+          <t>8,05; 58,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,25; 90,56</t>
+          <t>13,78; 88,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,12; 40,24</t>
+          <t>8,56; 43,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,18</t>
+          <t>1,92; 16,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,11</t>
+          <t>0,0; 8,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 16,8</t>
+          <t>2,53; 18,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,56</t>
+          <t>2,85; 10,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 18,45</t>
+          <t>5,73; 20,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,62</t>
+          <t>3,96; 11,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,01; 23,89</t>
+          <t>10,35; 23,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,67</t>
+          <t>3,14; 6,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,18</t>
+          <t>5,37; 15,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,74</t>
+          <t>3,27; 8,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 19,46</t>
+          <t>9,94; 19,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,76</t>
+          <t>3,46; 6,7</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que no le ayuda nadie cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1738</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2627</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8702</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13452</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21585</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8315</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>11252</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15508</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23323</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10942</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>762; 6131</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6441</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6151</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>943; 6465</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4227; 16064</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7941; 21863</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13857; 32989</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5319; 12557</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5924; 18874</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8951; 24666</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14810; 34033</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7050; 17049</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2307</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1850</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1574</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2139</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7039</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3423</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2511</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5926</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>517; 5083</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4843</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1845</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1222; 10495</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>395; 4172</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5702</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2651; 14187</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1414; 6793</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1787</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>2295</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1694</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 761</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4227</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3402</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1603</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3671</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>521; 3786</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1493</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1654</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1088; 6951</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1108; 5659</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3369</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5831</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5552</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10022</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13452</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>28613</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>11582</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13391</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15508</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>34444</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17135</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>928; 7867</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6377</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1821; 13312</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2888; 10305</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5358; 18907</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8002; 23197</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17776; 40263</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7826; 17276</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7614; 21970</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9183; 25148</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24249; 47560</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12145; 23506</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>